--- a/fake_data/simulated_journeys.xlsx
+++ b/fake_data/simulated_journeys.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Internship\Fake_Data_Creation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\data-apps-ecommerce-template\fake_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2B9C9C-DDB3-41C2-BDF3-BB81EA24CCA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A726157-E0E2-4AA0-8506-FE138EE08EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Info" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="328">
   <si>
     <t>Event</t>
   </si>
@@ -197,9 +197,6 @@
     <t>query = "shirt"</t>
   </si>
   <si>
-    <t>filter: categ_ls = Men's</t>
-  </si>
-  <si>
     <t>First Name: Joe</t>
   </si>
   <si>
@@ -428,9 +425,6 @@
     <t>Phone: 11111 00000</t>
   </si>
   <si>
-    <t>categ_l1 = "gaming"</t>
-  </si>
-  <si>
     <t>categ_l1 = "books"</t>
   </si>
   <si>
@@ -458,12 +452,6 @@
     <t>Gender: F</t>
   </si>
   <si>
-    <t>ID: user2</t>
-  </si>
-  <si>
-    <t>email: user2@gmail.com</t>
-  </si>
-  <si>
     <t>2022-04-23T21:05:10.221Z</t>
   </si>
   <si>
@@ -566,9 +554,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>categ_l2 = Men's</t>
-  </si>
-  <si>
     <t>categ_l2 = fiction</t>
   </si>
   <si>
@@ -599,9 +584,6 @@
     <t>2021-05-31T17:54:33.021Z</t>
   </si>
   <si>
-    <t>2021-05-31T17:54:37.382Z</t>
-  </si>
-  <si>
     <t>2021-05-31T17:54:49.213Z</t>
   </si>
   <si>
@@ -921,6 +903,117 @@
   </si>
   <si>
     <t>2022-05-18T19:54:54.321Z</t>
+  </si>
+  <si>
+    <t>cart id:124</t>
+  </si>
+  <si>
+    <t>order id:1235</t>
+  </si>
+  <si>
+    <t>checkout_id:124</t>
+  </si>
+  <si>
+    <t>list_ID = 320</t>
+  </si>
+  <si>
+    <t>cart_ID = 222</t>
+  </si>
+  <si>
+    <t>cart_id = 223</t>
+  </si>
+  <si>
+    <t>list_ID = 202</t>
+  </si>
+  <si>
+    <t>order_ID = 2234</t>
+  </si>
+  <si>
+    <t>order_ID = 2235</t>
+  </si>
+  <si>
+    <t>checkout_ID = 224</t>
+  </si>
+  <si>
+    <t>checkout_ID = 223</t>
+  </si>
+  <si>
+    <t>cart_ID = 224</t>
+  </si>
+  <si>
+    <t>order_ID = 2236</t>
+  </si>
+  <si>
+    <t>checkout_ID = 225</t>
+  </si>
+  <si>
+    <t>cart_ID = 225</t>
+  </si>
+  <si>
+    <t>order_ID = 2237</t>
+  </si>
+  <si>
+    <t>checkout_ID = 226</t>
+  </si>
+  <si>
+    <t>list_ID = 330</t>
+  </si>
+  <si>
+    <t>list_ID = 332</t>
+  </si>
+  <si>
+    <t>cart_id = 226</t>
+  </si>
+  <si>
+    <t>order_ID = 2238</t>
+  </si>
+  <si>
+    <t>checkout_Id = 227</t>
+  </si>
+  <si>
+    <t>categ_l2 = "gaming"</t>
+  </si>
+  <si>
+    <t>list_ID = 101</t>
+  </si>
+  <si>
+    <t>ID: user3</t>
+  </si>
+  <si>
+    <t>list_ID = 401</t>
+  </si>
+  <si>
+    <t>list_ID = 402</t>
+  </si>
+  <si>
+    <t>list_id = 411</t>
+  </si>
+  <si>
+    <t>list_ID = 400</t>
+  </si>
+  <si>
+    <t>list_ID: 111</t>
+  </si>
+  <si>
+    <t>(Removed productListFiltered before this)</t>
+  </si>
+  <si>
+    <t>cart_id = 200</t>
+  </si>
+  <si>
+    <t>order_id = 5001</t>
+  </si>
+  <si>
+    <t>checkout_id = 501</t>
+  </si>
+  <si>
+    <t>list_id = 410</t>
+  </si>
+  <si>
+    <t>cart_id = 900</t>
+  </si>
+  <si>
+    <t>(change device ID)</t>
   </si>
 </sst>
 </file>
@@ -1270,8 +1363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21DE980-7C01-4074-9BBF-43DAA48E5652}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1285,50 +1378,50 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E3" s="2">
         <v>1997</v>
@@ -1337,27 +1430,27 @@
         <v>44357</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" t="s">
         <v>105</v>
       </c>
-      <c r="C4" t="s">
-        <v>106</v>
-      </c>
       <c r="D4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E4" s="3">
         <v>32874</v>
@@ -1366,54 +1459,54 @@
         <v>44576</v>
       </c>
       <c r="G4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4" t="s">
         <v>93</v>
       </c>
-      <c r="H4" t="s">
-        <v>94</v>
-      </c>
       <c r="I4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" t="s">
         <v>89</v>
       </c>
-      <c r="C5" t="s">
-        <v>90</v>
-      </c>
       <c r="D5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="3">
         <v>44674</v>
       </c>
       <c r="G5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="I5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" t="s">
         <v>108</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>109</v>
       </c>
-      <c r="C6" t="s">
-        <v>110</v>
-      </c>
       <c r="D6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E6" s="2">
         <v>1982</v>
@@ -1422,27 +1515,27 @@
         <v>44424</v>
       </c>
       <c r="G6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E7" s="3">
         <v>30015</v>
@@ -1451,16 +1544,16 @@
         <v>44712</v>
       </c>
       <c r="G7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1475,8 +1568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1540,28 +1633,28 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" t="s">
         <v>56</v>
       </c>
-      <c r="F2" t="s">
-        <v>57</v>
-      </c>
       <c r="G2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J2" t="s">
         <v>7</v>
       </c>
       <c r="K2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" t="s">
         <v>59</v>
-      </c>
-      <c r="L2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
@@ -1692,7 +1785,7 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
@@ -1721,7 +1814,7 @@
         <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
@@ -1792,10 +1885,10 @@
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
@@ -1812,7 +1905,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3</v>
       </c>
@@ -1829,7 +1922,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3</v>
       </c>
@@ -1846,7 +1939,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1862,8 +1955,11 @@
       <c r="E20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3</v>
       </c>
@@ -1871,7 +1967,7 @@
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" t="s">
         <v>5</v>
@@ -1880,7 +1976,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1888,13 +1984,13 @@
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>3</v>
       </c>
@@ -1902,7 +1998,7 @@
         <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
@@ -1911,7 +2007,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3</v>
       </c>
@@ -1919,7 +2015,7 @@
         <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
         <v>5</v>
@@ -1928,7 +2024,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>3</v>
       </c>
@@ -1936,7 +2032,7 @@
         <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D25" t="s">
         <v>5</v>
@@ -1945,7 +2041,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>3</v>
       </c>
@@ -1953,7 +2049,7 @@
         <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D26" t="s">
         <v>5</v>
@@ -1961,8 +2057,11 @@
       <c r="E26" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>4</v>
       </c>
@@ -1970,7 +2069,7 @@
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D28" t="s">
         <v>5</v>
@@ -1979,7 +2078,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>4</v>
       </c>
@@ -1987,13 +2086,13 @@
         <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D29" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>4</v>
       </c>
@@ -2001,16 +2100,16 @@
         <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D30" t="s">
         <v>5</v>
       </c>
       <c r="E30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4</v>
       </c>
@@ -2018,7 +2117,7 @@
         <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D31" t="s">
         <v>5</v>
@@ -2027,7 +2126,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>4</v>
       </c>
@@ -2035,7 +2134,7 @@
         <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D32" t="s">
         <v>5</v>
@@ -2044,7 +2143,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>4</v>
       </c>
@@ -2052,7 +2151,7 @@
         <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D33" t="s">
         <v>5</v>
@@ -2060,8 +2159,11 @@
       <c r="E33" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>4</v>
       </c>
@@ -2069,13 +2171,13 @@
         <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D34" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>4</v>
       </c>
@@ -2083,7 +2185,7 @@
         <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D35" t="s">
         <v>5</v>
@@ -2092,7 +2194,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>4</v>
       </c>
@@ -2100,16 +2202,16 @@
         <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D36" t="s">
         <v>5</v>
       </c>
       <c r="E36" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>4</v>
       </c>
@@ -2117,13 +2219,16 @@
         <v>24</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D37" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E37" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>4</v>
       </c>
@@ -2131,16 +2236,19 @@
         <v>25</v>
       </c>
       <c r="C38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D38" t="s">
         <v>5</v>
       </c>
       <c r="E38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="F38" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>4</v>
       </c>
@@ -2148,7 +2256,7 @@
         <v>26</v>
       </c>
       <c r="C39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D39" t="s">
         <v>5</v>
@@ -2160,6 +2268,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <picture r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2167,8 +2276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B0533C-F279-4516-AA0C-07932ABBA4DB}">
   <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2227,34 +2336,34 @@
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" t="s">
         <v>116</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" t="s">
         <v>118</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>119</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>120</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>121</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>122</v>
-      </c>
-      <c r="L2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
@@ -2265,19 +2374,22 @@
         <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G3" t="s">
-        <v>283</v>
+        <v>277</v>
+      </c>
+      <c r="H3" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
@@ -2288,13 +2400,13 @@
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E4" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
@@ -2305,13 +2417,13 @@
         <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
@@ -2322,13 +2434,13 @@
         <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
@@ -2339,13 +2451,16 @@
         <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E7" t="s">
-        <v>175</v>
+        <v>171</v>
+      </c>
+      <c r="F7" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
@@ -2356,10 +2471,10 @@
         <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E8" t="s">
         <v>23</v>
@@ -2373,13 +2488,16 @@
         <v>24</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E9" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="F9" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
@@ -2390,13 +2508,16 @@
         <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E10" t="s">
-        <v>211</v>
+        <v>205</v>
+      </c>
+      <c r="F10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
@@ -2407,10 +2528,10 @@
         <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
@@ -2418,16 +2539,16 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" t="s">
         <v>125</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="D13" t="s">
-        <v>124</v>
-      </c>
-      <c r="E13" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
@@ -2438,16 +2559,19 @@
         <v>9</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E14" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F14" t="s">
-        <v>212</v>
+        <v>206</v>
+      </c>
+      <c r="G14" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
@@ -2458,13 +2582,13 @@
         <v>20</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E15" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
@@ -2475,16 +2599,16 @@
         <v>16</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E16" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2492,16 +2616,16 @@
         <v>20</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E17" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2509,16 +2633,16 @@
         <v>16</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E18" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2526,16 +2650,19 @@
         <v>18</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E19" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+      <c r="F19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
@@ -2543,16 +2670,16 @@
         <v>21</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2560,13 +2687,16 @@
         <v>24</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D21" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+      <c r="F21" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2574,16 +2704,19 @@
         <v>25</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="F22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
@@ -2591,30 +2724,30 @@
         <v>26</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E25" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>4</v>
       </c>
@@ -2622,16 +2755,16 @@
         <v>8</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E27" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>4</v>
       </c>
@@ -2639,16 +2772,16 @@
         <v>9</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E28" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>4</v>
       </c>
@@ -2656,16 +2789,16 @@
         <v>13</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E29" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>4</v>
       </c>
@@ -2673,16 +2806,16 @@
         <v>20</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E30" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4</v>
       </c>
@@ -2690,16 +2823,16 @@
         <v>16</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E31" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>4</v>
       </c>
@@ -2707,16 +2840,19 @@
         <v>18</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E32" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+      <c r="F32" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>4</v>
       </c>
@@ -2724,16 +2860,16 @@
         <v>21</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E33" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>4</v>
       </c>
@@ -2741,16 +2877,19 @@
         <v>24</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E34" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+      <c r="F34" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>4</v>
       </c>
@@ -2758,16 +2897,19 @@
         <v>25</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E35" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>4</v>
       </c>
@@ -2775,13 +2917,13 @@
         <v>26</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D36" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>5</v>
       </c>
@@ -2789,16 +2931,16 @@
         <v>8</v>
       </c>
       <c r="C38" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D38" t="s">
+        <v>123</v>
+      </c>
+      <c r="E38" t="s">
         <v>284</v>
       </c>
-      <c r="D38" t="s">
-        <v>124</v>
-      </c>
-      <c r="E38" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>5</v>
       </c>
@@ -2806,16 +2948,16 @@
         <v>9</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E39" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>5</v>
       </c>
@@ -2823,16 +2965,16 @@
         <v>13</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E40" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>5</v>
       </c>
@@ -2840,16 +2982,16 @@
         <v>20</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E41" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>5</v>
       </c>
@@ -2857,16 +2999,16 @@
         <v>16</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E42" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>5</v>
       </c>
@@ -2874,16 +3016,19 @@
         <v>18</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E43" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+      <c r="F43" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>5</v>
       </c>
@@ -2891,16 +3036,16 @@
         <v>21</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E44" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>5</v>
       </c>
@@ -2908,16 +3053,19 @@
         <v>24</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E45" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+      <c r="F45" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>5</v>
       </c>
@@ -2925,16 +3073,19 @@
         <v>25</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E46" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+      <c r="F46" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>5</v>
       </c>
@@ -2942,13 +3093,13 @@
         <v>26</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D47" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>6</v>
       </c>
@@ -2956,19 +3107,22 @@
         <v>9</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E49" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F49" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+      <c r="G49" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>7</v>
       </c>
@@ -2976,22 +3130,25 @@
         <v>9</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E51" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F51" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G51" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+      <c r="H51" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>7</v>
       </c>
@@ -2999,16 +3156,16 @@
         <v>20</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D52" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E52" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>7</v>
       </c>
@@ -3016,16 +3173,16 @@
         <v>16</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D53" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E53" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>7</v>
       </c>
@@ -3033,16 +3190,19 @@
         <v>18</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D54" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E54" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F54" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>7</v>
       </c>
@@ -3050,16 +3210,16 @@
         <v>21</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D55" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E55" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>7</v>
       </c>
@@ -3067,16 +3227,19 @@
         <v>24</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D56" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E56" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+      <c r="F56" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>7</v>
       </c>
@@ -3084,16 +3247,19 @@
         <v>25</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E57" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+      <c r="F57" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>7</v>
       </c>
@@ -3101,27 +3267,27 @@
         <v>26</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D58" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D60" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E60" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -3192,13 +3358,13 @@
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
@@ -3209,13 +3375,16 @@
         <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E3" t="s">
-        <v>132</v>
+        <v>313</v>
+      </c>
+      <c r="F3" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
@@ -3226,13 +3395,13 @@
         <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
@@ -3243,13 +3412,13 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
@@ -3260,13 +3429,13 @@
         <v>20</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E6" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
@@ -3277,13 +3446,13 @@
         <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
@@ -3291,34 +3460,34 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" t="s">
         <v>130</v>
       </c>
-      <c r="E9" t="s">
-        <v>131</v>
-      </c>
       <c r="F9" t="s">
+        <v>135</v>
+      </c>
+      <c r="G9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H9" t="s">
         <v>137</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I9" t="s">
         <v>138</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J9" t="s">
         <v>139</v>
       </c>
-      <c r="I9" t="s">
-        <v>140</v>
-      </c>
-      <c r="J9" t="s">
-        <v>141</v>
-      </c>
       <c r="K9" t="s">
-        <v>142</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
@@ -3329,19 +3498,22 @@
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D10" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F10" t="s">
+        <v>132</v>
+      </c>
+      <c r="G10" t="s">
         <v>134</v>
       </c>
-      <c r="G10" t="s">
-        <v>136</v>
+      <c r="H10" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
@@ -3352,19 +3524,22 @@
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D11" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G11" t="s">
         <v>133</v>
       </c>
-      <c r="F11" t="s">
-        <v>134</v>
-      </c>
-      <c r="G11" t="s">
-        <v>135</v>
+      <c r="H11" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
@@ -3375,13 +3550,13 @@
         <v>20</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D12" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E12" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
@@ -3392,13 +3567,13 @@
         <v>16</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D13" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E13" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
@@ -3409,13 +3584,13 @@
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E15" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
@@ -3426,16 +3601,16 @@
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E16" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
@@ -3443,16 +3618,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E17" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3</v>
       </c>
@@ -3460,33 +3635,33 @@
         <v>9</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E18" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D20" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E20" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>4</v>
       </c>
@@ -3494,22 +3669,25 @@
         <v>9</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D21" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E21" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F21" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G21" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+      <c r="H21" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>4</v>
       </c>
@@ -3517,16 +3695,16 @@
         <v>13</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D22" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E22" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4</v>
       </c>
@@ -3534,16 +3712,16 @@
         <v>20</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D23" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E23" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>4</v>
       </c>
@@ -3551,13 +3729,13 @@
         <v>16</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D24" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E24" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -3573,7 +3751,7 @@
   <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F14" sqref="F14:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3632,37 +3810,37 @@
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K2" t="s">
         <v>149</v>
       </c>
-      <c r="D2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="L2" t="s">
         <v>150</v>
       </c>
-      <c r="G2" t="s">
+      <c r="M2" t="s">
         <v>151</v>
-      </c>
-      <c r="H2" t="s">
-        <v>152</v>
-      </c>
-      <c r="I2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" t="s">
-        <v>162</v>
-      </c>
-      <c r="K2" t="s">
-        <v>153</v>
-      </c>
-      <c r="L2" t="s">
-        <v>154</v>
-      </c>
-      <c r="M2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
@@ -3673,13 +3851,16 @@
         <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" t="s">
         <v>166</v>
       </c>
-      <c r="D3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E3" t="s">
-        <v>170</v>
+      <c r="F3" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
@@ -3690,19 +3871,22 @@
         <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" t="s">
         <v>167</v>
       </c>
-      <c r="D4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" t="s">
-        <v>171</v>
-      </c>
       <c r="F4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G4" t="s">
-        <v>173</v>
+        <v>169</v>
+      </c>
+      <c r="H4" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
@@ -3713,13 +3897,13 @@
         <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
@@ -3730,13 +3914,13 @@
         <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -3749,10 +3933,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94EC87D6-3F87-4E95-B36F-D4763D2EC3F5}">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3812,37 +3996,37 @@
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" t="s">
+        <v>157</v>
+      </c>
+      <c r="K2" t="s">
         <v>159</v>
       </c>
-      <c r="H2" t="s">
-        <v>152</v>
-      </c>
-      <c r="I2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" t="s">
-        <v>161</v>
-      </c>
-      <c r="K2" t="s">
-        <v>163</v>
-      </c>
       <c r="L2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
@@ -3853,10 +4037,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E3" t="s">
         <v>50</v>
@@ -3870,13 +4054,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
@@ -3884,16 +4068,19 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E5" t="s">
-        <v>178</v>
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
@@ -3901,16 +4088,16 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
@@ -3918,16 +4105,19 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E7" t="s">
-        <v>175</v>
+        <v>171</v>
+      </c>
+      <c r="F7" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
@@ -3935,16 +4125,16 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E8" t="s">
-        <v>175</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
@@ -3952,16 +4142,16 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
@@ -3969,13 +4159,19 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+      <c r="E10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
@@ -3983,30 +4179,36 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D11" t="s">
-        <v>124</v>
-      </c>
-      <c r="E11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D12" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" t="s">
+        <v>166</v>
+      </c>
+      <c r="F13" t="s">
+        <v>174</v>
+      </c>
+      <c r="G13" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
@@ -4014,19 +4216,16 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E14" t="s">
-        <v>170</v>
-      </c>
-      <c r="F14" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
@@ -4034,16 +4233,16 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E15" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
@@ -4051,50 +4250,41 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E16" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E17" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="D18" t="s">
-        <v>124</v>
-      </c>
-      <c r="E18" t="s">
-        <v>175</v>
+        <v>171</v>
+      </c>
+      <c r="F17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>
